--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1197500.449471693</v>
+        <v>-1201640.15588565</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13216017.31907502</v>
+        <v>13213067.42212293</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.9549749949529</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.6311258742071</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615192</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.45080330270152</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>165.0470679702736</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>339.0774056224109</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>41.91625681721997</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296812</v>
+        <v>50.6435372072253</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>206.450231436319</v>
       </c>
       <c r="W7" t="n">
-        <v>57.87860001854902</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1133,13 +1133,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.26710850472003</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>344.9648075166406</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>116.8763835457721</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.09808881770278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>198.4872472116697</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>117.8545206798367</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>122.769637268455</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>40.4570944451218</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>189.3111531094905</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>121.4168366513057</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>139.8262500959788</v>
+        <v>57.08382738827906</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422874555</v>
+        <v>6.593776422876545</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879316</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.311879757299</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>180.5787412169601</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354889</v>
+        <v>607.9173797052175</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354889</v>
+        <v>1121.520058314906</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572951</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.276500964322</v>
+        <v>1730.471317158801</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.276500964322</v>
+        <v>1730.471317158801</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.276500964322</v>
+        <v>1333.980608079402</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021447</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622369</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837172</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946049</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777367</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777367</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L3" t="n">
-        <v>458.2789394462757</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563687</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466462</v>
+        <v>1552.274689874028</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>2065.877368483717</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675987</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>880.8509614285281</v>
+        <v>553.1239980435508</v>
       </c>
       <c r="C4" t="n">
-        <v>710.6458434945173</v>
+        <v>382.9188801095401</v>
       </c>
       <c r="D4" t="n">
-        <v>555.0127303970321</v>
+        <v>382.9188801095401</v>
       </c>
       <c r="E4" t="n">
-        <v>399.4539182562345</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="F4" t="n">
-        <v>242.1279834692075</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865304</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>776.2360592269075</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>776.2360592269075</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>553.1239980435508</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>950.3519961655325</v>
+        <v>888.7242779591834</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>495.5487764621139</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>495.5487764621139</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>92.96525157865847</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>50.62559822793122</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.78296973775</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.337450956328</v>
+        <v>1685.709732749979</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.846741876929</v>
+        <v>1289.21902367058</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182859</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244.0790475026638</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865304</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385312</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597376</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628585</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670293</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>1839.443285985157</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>1839.443285985157</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>1630.907698675743</v>
       </c>
       <c r="W7" t="n">
-        <v>886.4794495943387</v>
+        <v>1630.907698675743</v>
       </c>
       <c r="X7" t="n">
-        <v>652.3991273773217</v>
+        <v>1396.827376458727</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.2870661939651</v>
+        <v>1173.71531527537</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015.707280991098</v>
+        <v>1671.408116085904</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.707280991098</v>
+        <v>1278.232614588834</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>892.7914858055021</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.692735781894</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.202026702495</v>
+        <v>2071.902861797301</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>729.1094599945193</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="C10" t="n">
-        <v>558.9043420605085</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="D10" t="n">
-        <v>403.2712289630232</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2712289630232</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.3174786858206</v>
+        <v>165.3699231780811</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1589.282783693955</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.90355734308</v>
+        <v>813.6365687735843</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442404</v>
+        <v>499.9917151364459</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185751</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527722</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.332018113113</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2242.675688192363</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1917.981254259159</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>387.3941705188075</v>
+        <v>571.25837199077</v>
       </c>
       <c r="C13" t="n">
-        <v>387.3941705188075</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675165</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675165</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027737</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245447</v>
+        <v>1241.70309852865</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915628</v>
+        <v>1047.520028495669</v>
       </c>
       <c r="W13" t="n">
-        <v>700.9940036267933</v>
+        <v>835.9859015730401</v>
       </c>
       <c r="X13" t="n">
-        <v>538.7099565559703</v>
+        <v>835.9859015730401</v>
       </c>
       <c r="Y13" t="n">
-        <v>387.3941705188075</v>
+        <v>684.6701155358774</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1229.733075037215</v>
+        <v>1780.935942880365</v>
       </c>
       <c r="C14" t="n">
-        <v>908.3538486863396</v>
+        <v>1459.556716529489</v>
       </c>
       <c r="D14" t="n">
-        <v>594.7089950492013</v>
+        <v>1145.911862892351</v>
       </c>
       <c r="E14" t="n">
-        <v>594.7089950492013</v>
+        <v>815.1246131550888</v>
       </c>
       <c r="F14" t="n">
-        <v>594.7089950492013</v>
+        <v>470.0264498312602</v>
       </c>
       <c r="G14" t="n">
-        <v>253.3425146833988</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535623</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1558.431545602418</v>
+        <v>2109.634413445568</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>389.0869922083498</v>
+        <v>402.1207374143128</v>
       </c>
       <c r="C16" t="n">
-        <v>389.0869922083498</v>
+        <v>303.7118946264958</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083498</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083498</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245448</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915629</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689344</v>
+        <v>724.5086987019154</v>
       </c>
       <c r="X16" t="n">
-        <v>389.0869922083498</v>
+        <v>666.848266996583</v>
       </c>
       <c r="Y16" t="n">
-        <v>389.0869922083498</v>
+        <v>515.5324809594201</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>207.7175872278004</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>691.2836731261136</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M18" t="n">
-        <v>1319.055322752795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133152</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445244</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924135</v>
+        <v>68.77950792924335</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2148.973980501895</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6230,7 +6230,7 @@
         <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
         <v>1739.339056658946</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6361,10 +6361,10 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6382,52 +6382,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6470,13 @@
         <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
         <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,10 +6488,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315961</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>337.06821329208</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>612.8479737408626</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>799.1395520791266</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>982.3291861103357</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7102,19 +7102,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,13 +7199,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,13 +7260,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7342,7 +7342,7 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
         <v>969.3241577214669</v>
@@ -7351,7 +7351,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,7 +7394,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
         <v>542.6718405099314</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,19 +7436,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,10 +7573,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
@@ -7588,31 +7588,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5261625956061</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>216.6643353997736</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>394.775799212265</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837493</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>96.46212172154287</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>193.5145772035929</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115923</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801706</v>
+        <v>485.881068693858</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>633.9592855728719</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>237.3130400541719</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>236.6660863673584</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>324.8070240426374</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,7 +10200,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10908,16 +10908,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>108.8653421701425</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>112.0211578890973</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>209.6248565600522</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>88.73645417733111</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>168.9616912082804</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>60.45275442495181</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>193.0629299702361</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>20.83495650413599</v>
+        <v>103.5773792118357</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>-7.583324514962069e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1154374.794194117</v>
+        <v>1152870.925159716</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1154374.794194117</v>
+        <v>1152870.925159716</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="C2" t="n">
         <v>162298.9602840211</v>
@@ -26320,7 +26320,7 @@
         <v>162298.9602840211</v>
       </c>
       <c r="E2" t="n">
-        <v>143423.1210819607</v>
+        <v>143423.1210819606</v>
       </c>
       <c r="F2" t="n">
         <v>143423.1210819606</v>
@@ -26329,10 +26329,10 @@
         <v>162298.9602840215</v>
       </c>
       <c r="H2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="I2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="J2" t="n">
         <v>162298.9602840213</v>
@@ -26344,13 +26344,13 @@
         <v>162298.9602840208</v>
       </c>
       <c r="M2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="N2" t="n">
         <v>162298.9602840214</v>
       </c>
       <c r="O2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="P2" t="n">
         <v>162298.9602840214</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668203</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.5244708111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
         <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="H4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="I4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="H4" t="n">
-        <v>186364.8769761035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,16 +26445,16 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="O4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="O4" t="n">
-        <v>186364.8769761036</v>
       </c>
       <c r="P4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308144.9001967998</v>
+        <v>-303492.6805756247</v>
       </c>
       <c r="C6" t="n">
-        <v>-125939.9519049438</v>
+        <v>-129634.0235415696</v>
       </c>
       <c r="D6" t="n">
-        <v>-133684.5326085642</v>
+        <v>-141420.8218319558</v>
       </c>
       <c r="E6" t="n">
-        <v>-160491.4205764457</v>
+        <v>-160701.1521231355</v>
       </c>
       <c r="F6" t="n">
-        <v>-48368.85910240124</v>
+        <v>-48578.59064909077</v>
       </c>
       <c r="G6" t="n">
-        <v>-129661.0115442837</v>
+        <v>-129661.0115442838</v>
       </c>
       <c r="H6" t="n">
+        <v>-82235.68600760165</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-82235.68600760173</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-288761.3184503143</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-88475.45441038479</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-147706.8805554788</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-125488.2104784128</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-82235.68600760179</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-110003.3800503728</v>
+      </c>
+      <c r="P6" t="n">
         <v>-82235.68600760176</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-82235.68600760185</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-295277.6036048876</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-88475.45441038485</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-143658.0433450064</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-124436.5154672247</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-82235.68600760176</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-110003.3800503731</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-82235.68600760173</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924605</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287433</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.53482325933004</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>63.65791880718831</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925315</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.9051352016867</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>115.4500300778606</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>50.16634085968775</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>370.809237268102</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626865</v>
+        <v>124.5704364758553</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>56.86932029106504</v>
       </c>
       <c r="W7" t="n">
-        <v>222.6184980295851</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>383.2905811299009</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>40.59327149963315</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.69512981577685</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>186.7828517538203</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.01250026485135</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28989,11 +28989,11 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>5.63600263452949</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29095,7 +29095,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155852</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,10 +29302,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>30.27223765901272</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29457,7 +29457,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
         <v>93.99127447431646</v>
@@ -29542,16 +29542,16 @@
         <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="O29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566603</v>
+        <v>43.49509683160016</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.8683420224723</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045359</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30645,10 +30645,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30879,19 +30879,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>138.4677594163688</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>63.41616566928196</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>304.7154523553468</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>9.378756902228218</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>43.78952560586567</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749594</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>446.710322826004</v>
+        <v>400.5089558396913</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>484.8407942350878</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>144.92591800486</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176433</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.8188708867233</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094883</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36753,7 +36753,7 @@
         <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36838,16 +36838,16 @@
         <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114523</v>
+        <v>487.9795421773865</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227376</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.5299997092823</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624736</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>23.49322931597588</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716083</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
